--- a/data/sitrep_results_table.xlsx
+++ b/data/sitrep_results_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96ab6b4915bb0676/Cloud_Docs/Kenya/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanywng\Documents\R\eie_wg_5ws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AC765D41-073F-455D-907D-EEBBDD2ACD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458819FC-3B5D-4607-A7A8-AAB7D1CCB2C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07E58AC-0214-499B-A1B4-B439117F39F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19118" yWindow="-83" windowWidth="28965" windowHeight="16366" xr2:uid="{67167794-7257-4BE2-B14A-2DB042B22B13}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Children accessing formal or non-formal education, including early learning </t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>Cluster/Sector response  Progress </t>
+  </si>
+  <si>
+    <t>3,083,702 </t>
+  </si>
+  <si>
+    <t>866,711 </t>
+  </si>
+  <si>
+    <t>33,972 </t>
+  </si>
+  <si>
+    <t>25,515 </t>
+  </si>
+  <si>
+    <t>1,201,151 </t>
+  </si>
+  <si>
+    <t>111,294 </t>
+  </si>
+  <si>
+    <t>61,637 </t>
   </si>
 </sst>
 </file>
@@ -232,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -343,11 +364,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -368,6 +434,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408151A1-318D-4A2A-9B26-98BFB08B08ED}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,41 +805,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -776,72 +851,72 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="92.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="58" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="58" thickBot="1" x14ac:dyDescent="0.4">
@@ -852,71 +927,109 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="57.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" ht="58" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
